--- a/NanoFreak BOM.xlsx
+++ b/NanoFreak BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="175">
   <si>
     <t>Reference</t>
   </si>
@@ -46,6 +46,12 @@
     <t>Battery:BatteryHolder_Keystone_1042_1x18650</t>
   </si>
   <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/1042/2745668</t>
+  </si>
+  <si>
+    <t>Protected 3500mAh 10A 18650 Button Top</t>
+  </si>
+  <si>
     <t>https://liionwholesale.com/products/protected-panasonic-sanyo-ncr18650ga-button-top?variant=12534255236</t>
   </si>
   <si>
@@ -442,6 +448,9 @@
     <t>PCM_Espressif:ESP32-S3-DevKitC</t>
   </si>
   <si>
+    <t>https://www.amazon.com/dp/B0CKXJLP4B</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
@@ -511,6 +520,9 @@
     <t>Analog Stick:CNK_THB001P</t>
   </si>
   <si>
+    <t>https://www.digikey.com/en/products/detail/c-k/THB001P/11687191?s=N4IgTCBcDaIC4AsBGAGFBGEBdAvkA</t>
+  </si>
+  <si>
     <t>U8</t>
   </si>
   <si>
@@ -518,6 +530,9 @@
   </si>
   <si>
     <t>OLED:OLED 128x64</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B076PDVFQD</t>
   </si>
   <si>
     <t>Total</t>
@@ -852,179 +867,179 @@
         <v>11</v>
       </c>
       <c r="I2" s="1">
-        <v>11.99</v>
+        <v>4.63</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J58" si="1">B2*I2</f>
-        <v>11.99</v>
+        <f t="shared" ref="J2:J59" si="1">B2*I2</f>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1">
-        <v>0.04</v>
+        <v>11.99</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="1">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>0.03</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -1032,40 +1047,40 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I11" s="1">
         <v>0.01</v>
@@ -1080,112 +1095,112 @@
         <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I12" s="1">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I13" s="1">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" s="1">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>1.41</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="I15" s="1">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I16" s="1">
         <v>0.7</v>
@@ -1206,65 +1221,65 @@
         <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I17" s="1">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="I18" s="1">
-        <v>0.05</v>
+        <v>2.25</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>0.65</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>470.0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20">
@@ -1272,23 +1287,23 @@
         <v>65</v>
       </c>
       <c r="B20" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="5">
-        <v>22.0</v>
+        <v>470.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I20" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1296,13 +1311,13 @@
         <v>67</v>
       </c>
       <c r="B21" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C21" s="5">
-        <v>220.0</v>
+        <v>22.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
@@ -1312,7 +1327,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
@@ -1320,40 +1335,40 @@
         <v>69</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>220.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="I22" s="1">
         <v>0.01</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="I23" s="1">
         <v>0.01</v>
@@ -1365,16 +1380,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>270.0</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>76</v>
@@ -1392,64 +1407,64 @@
         <v>77</v>
       </c>
       <c r="B25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>270.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="I25" s="1">
         <v>0.01</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I26" s="1">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I27" s="1">
         <v>0.7</v>
@@ -1470,10 +1485,10 @@
         <v>87</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I28" s="1">
         <v>0.7</v>
@@ -1494,10 +1509,10 @@
         <v>89</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1">
         <v>0.7</v>
@@ -1518,10 +1533,10 @@
         <v>91</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I30" s="1">
         <v>0.7</v>
@@ -1542,10 +1557,10 @@
         <v>93</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I31" s="1">
         <v>0.7</v>
@@ -1566,10 +1581,10 @@
         <v>95</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I32" s="1">
         <v>0.7</v>
@@ -1590,58 +1605,58 @@
         <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="I33" s="1">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="I34" s="1">
-        <v>0.47</v>
+        <v>3.4</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="I35" s="1">
         <v>0.47</v>
@@ -1662,10 +1677,10 @@
         <v>107</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I36" s="1">
         <v>0.47</v>
@@ -1686,31 +1701,34 @@
         <v>109</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.47</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="1"/>
@@ -1728,10 +1746,10 @@
         <v>115</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="1"/>
@@ -1749,10 +1767,10 @@
         <v>117</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="1"/>
@@ -1770,10 +1788,10 @@
         <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="1"/>
@@ -1791,10 +1809,10 @@
         <v>121</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="1"/>
@@ -1812,10 +1830,10 @@
         <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="1"/>
@@ -1833,10 +1851,10 @@
         <v>125</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="1"/>
@@ -1854,10 +1872,10 @@
         <v>127</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="1"/>
@@ -1875,10 +1893,10 @@
         <v>129</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="1"/>
@@ -1896,10 +1914,10 @@
         <v>131</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="1"/>
@@ -1917,10 +1935,10 @@
         <v>133</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="1"/>
@@ -1938,10 +1956,10 @@
         <v>135</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="1"/>
@@ -1959,173 +1977,183 @@
         <v>137</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.47</v>
+        <v>104</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>142</v>
+      <c r="I51" s="1">
+        <v>0.47</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I52" s="1">
-        <v>2.99</v>
+        <f>18/3</f>
+        <v>6</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="1"/>
-        <v>2.99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="I53" s="1">
-        <v>2.01</v>
+        <v>2.99</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="1"/>
-        <v>2.01</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="I54" s="1">
-        <v>0.45</v>
+        <v>2.01</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="I55" s="1">
-        <v>1.35</v>
+        <v>0.45</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="1"/>
-        <v>1.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="I56" s="1">
-        <v>0.43</v>
+        <v>1.35</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="1"/>
-        <v>0.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="I57" s="1">
+        <v>0.43</v>
+      </c>
       <c r="J57" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="58">
@@ -2141,18 +2169,49 @@
       <c r="G58" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="H58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2.43</v>
+      </c>
       <c r="J58" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="I61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J61" s="3">
-        <f>SUM(J2:J58)</f>
-        <v>36.6</v>
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="3">
+        <f>12/3</f>
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="3">
+        <f>SUM(J2:J59)</f>
+        <v>53.66</v>
       </c>
     </row>
   </sheetData>
@@ -2192,13 +2251,17 @@
     <hyperlink r:id="rId33" ref="H34"/>
     <hyperlink r:id="rId34" ref="H35"/>
     <hyperlink r:id="rId35" ref="H36"/>
-    <hyperlink r:id="rId36" ref="H50"/>
-    <hyperlink r:id="rId37" ref="H52"/>
-    <hyperlink r:id="rId38" ref="H53"/>
-    <hyperlink r:id="rId39" ref="H54"/>
-    <hyperlink r:id="rId40" ref="H55"/>
-    <hyperlink r:id="rId41" ref="H56"/>
+    <hyperlink r:id="rId36" ref="H37"/>
+    <hyperlink r:id="rId37" ref="H51"/>
+    <hyperlink r:id="rId38" ref="H52"/>
+    <hyperlink r:id="rId39" ref="H53"/>
+    <hyperlink r:id="rId40" ref="H54"/>
+    <hyperlink r:id="rId41" ref="H55"/>
+    <hyperlink r:id="rId42" ref="H56"/>
+    <hyperlink r:id="rId43" ref="H57"/>
+    <hyperlink r:id="rId44" ref="H58"/>
+    <hyperlink r:id="rId45" ref="H59"/>
   </hyperlinks>
-  <drawing r:id="rId42"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>